--- a/api_fuction_string_json.xlsx
+++ b/api_fuction_string_json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40952E85-017B-4651-8D37-3B7FA3B2D721}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E376B5-31EF-4450-8264-0CDAA2721AD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="3405" windowWidth="14400" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,78 @@
   </si>
   <si>
     <t>检查邮件</t>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSended是否发送邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_email邮箱注册状态（True为邮箱已注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code（输入的验证码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_check验证状态（True为验证成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status注册状态（True为注册成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -443,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -454,7 +526,7 @@
     <col min="1" max="1" width="19.5546875" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
@@ -523,45 +595,126 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/api_fuction_string_json.xlsx
+++ b/api_fuction_string_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E376B5-31EF-4450-8264-0CDAA2721AD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065B4F2-C38F-4D9D-A8A5-D740535561A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,50 @@
   </si>
   <si>
     <t>message信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone_number电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type用户类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profession职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction个人介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar logo路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +250,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="4"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -515,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D23:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -687,34 +731,87 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/api_fuction_string_json.xlsx
+++ b/api_fuction_string_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065B4F2-C38F-4D9D-A8A5-D740535561A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607AFC73-521A-421B-97FB-C26E66C010E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,10 @@
   </si>
   <si>
     <t>avatar logo路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_username(True为该用户名已被注册）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D23:D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -720,6 +724,9 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">

--- a/api_fuction_string_json.xlsx
+++ b/api_fuction_string_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607AFC73-521A-421B-97FB-C26E66C010E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B57DE3B-CE30-4723-8EAC-1017B9CB4EF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status_check验证状态（True为验证成功）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>avatar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,6 +226,14 @@
   </si>
   <si>
     <t>status_username(True为该用户名已被注册）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status登录状态 message信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_check验证状态（True为验证成功）message信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -574,7 +578,7 @@
     <col min="1" max="1" width="19.5546875" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
@@ -638,7 +642,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -706,18 +710,18 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,100 +729,100 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/api_fuction_string_json.xlsx
+++ b/api_fuction_string_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B57DE3B-CE30-4723-8EAC-1017B9CB4EF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A32EA9A-054A-4911-9721-D6F65697DC13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,10 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>avatar logo路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status_username(True为该用户名已被注册）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +230,10 @@
   </si>
   <si>
     <t>status_check验证状态（True为验证成功）message信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,7 +777,7 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">

--- a/api_fuction_string_json.xlsx
+++ b/api_fuction_string_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A32EA9A-054A-4911-9721-D6F65697DC13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3F176E-C8A4-4C5C-AD14-454D40E85779}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>username用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,7 +229,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>logo路径</t>
+    <t>展示个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/personal_center/showInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar头像路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/personal_center/editInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,15 +587,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="37.21875" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="52" customWidth="1"/>
@@ -642,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -699,7 +719,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,87 +762,112 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
       <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>41</v>
       </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>50</v>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/api_fuction_string_json.xlsx
+++ b/api_fuction_string_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3F176E-C8A4-4C5C-AD14-454D40E85779}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158FF4EB-37D0-4FE6-9728-9B007D18FEB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,7 +253,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username</t>
+    <t>除用户名、邮箱外的改动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -799,9 +831,6 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
       <c r="D23" t="s">
         <v>55</v>
       </c>
@@ -864,10 +893,55 @@
         <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/api_fuction_string_json.xlsx
+++ b/api_fuction_string_json.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEAMDOCUNMENT\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158FF4EB-37D0-4FE6-9728-9B007D18FEB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524367E5-9467-44B9-BFCB-71D50A4A95C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,78 @@
   </si>
   <si>
     <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/showActivity/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看活动信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name会议名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type会议类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status会议状态（可以不显示，因为可以查看到的会议应该都是已发布）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organizer主办方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo会议图标（功能暂时未实现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction会议介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/createActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type会议类型（前端界面缺少这一项）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status会议状态（不需要填写，默认为未发布）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo会议图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -944,6 +1016,119 @@
         <v>67</v>
       </c>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api_fuction_string_json.xlsx
+++ b/api_fuction_string_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEAMDOCUNMENT\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524367E5-9467-44B9-BFCB-71D50A4A95C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E71B37D-4A5C-4F66-85D9-A63AE25F6AC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,10 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>logo会议图标（功能暂时未实现）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>introduction会议介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,6 +354,10 @@
   </si>
   <si>
     <t>logo会议图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo会议图标（不知道怎么传文件给前端）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1067,20 +1067,20 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" t="s">
         <v>81</v>
-      </c>
-      <c r="B54" t="s">
-        <v>82</v>
       </c>
       <c r="C54" t="s">
         <v>72</v>
@@ -1091,12 +1091,12 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1121,12 +1121,12 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/api_fuction_string_json.xlsx
+++ b/api_fuction_string_json.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEAMDOCUNMENT\TeamDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeMonkey\WORKSPACE\meetingSystem\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E71B37D-4A5C-4F66-85D9-A63AE25F6AC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,7 +363,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -690,11 +689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/api_fuction_string_json.xlsx
+++ b/api_fuction_string_json.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeMonkey\WORKSPACE\meetingSystem\TeamDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEAMDOCUNMENT\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3776FD7-6384-4AB5-ADBA-5902E6F8CF43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type会议类型（前端界面缺少这一项）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status会议状态（不需要填写，默认为未发布）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,13 +354,33 @@
   </si>
   <si>
     <t>logo会议图标（不知道怎么传文件给前端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/findPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码 重新设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status 修改密码状态 成功or失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -689,11 +706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -897,240 +914,262 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>57</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>58</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>59</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>68</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>69</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>70</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>80</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>81</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C56" t="s">
         <v>72</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D56" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/api_fuction_string_json.xlsx
+++ b/api_fuction_string_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEAMDOCUNMENT\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3776FD7-6384-4AB5-ADBA-5902E6F8CF43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410BF47B-2DF3-4EF8-B5B3-E357509256E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,6 +370,38 @@
   </si>
   <si>
     <t>status 修改密码状态 成功or失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid会议uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status 创建会议状态 成功or失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/uploadFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_uuid会议uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userfile文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status 上传文件状态 成功or失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -707,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1131,11 +1163,17 @@
       <c r="C57" t="s">
         <v>73</v>
       </c>
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>82</v>
       </c>
+      <c r="D58" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
@@ -1165,6 +1203,28 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
